--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Bmp6-Acvr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Bmp6-Acvr1.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>19.72450833333333</v>
+        <v>8.929813666666668</v>
       </c>
       <c r="H2">
-        <v>59.173525</v>
+        <v>26.789441</v>
       </c>
       <c r="I2">
-        <v>0.5834853563809828</v>
+        <v>0.3579859341865942</v>
       </c>
       <c r="J2">
-        <v>0.5834853563809829</v>
+        <v>0.3579859341865942</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.436778333333334</v>
+        <v>10.92359866666667</v>
       </c>
       <c r="N2">
-        <v>16.310335</v>
+        <v>32.770796</v>
       </c>
       <c r="O2">
-        <v>0.121853993972124</v>
+        <v>0.2236009040380497</v>
       </c>
       <c r="P2">
-        <v>0.121853993972124</v>
+        <v>0.2236009040380497</v>
       </c>
       <c r="Q2">
-        <v>107.2377795423194</v>
+        <v>97.54570066278181</v>
       </c>
       <c r="R2">
-        <v>965.1400158808751</v>
+        <v>877.9113059650363</v>
       </c>
       <c r="S2">
-        <v>0.07110002109927091</v>
+        <v>0.08004597851702822</v>
       </c>
       <c r="T2">
-        <v>0.07110002109927094</v>
+        <v>0.08004597851702822</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>19.72450833333333</v>
+        <v>8.929813666666668</v>
       </c>
       <c r="H3">
-        <v>59.173525</v>
+        <v>26.789441</v>
       </c>
       <c r="I3">
-        <v>0.5834853563809828</v>
+        <v>0.3579859341865942</v>
       </c>
       <c r="J3">
-        <v>0.5834853563809829</v>
+        <v>0.3579859341865942</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>62.452076</v>
       </c>
       <c r="O3">
-        <v>0.4665774732677552</v>
+        <v>0.4261214970992155</v>
       </c>
       <c r="P3">
-        <v>0.4665774732677551</v>
+        <v>0.4261214970992155</v>
       </c>
       <c r="Q3">
-        <v>410.6121644986555</v>
+        <v>185.8951339255018</v>
       </c>
       <c r="R3">
-        <v>3695.5094804879</v>
+        <v>1673.056205329516</v>
       </c>
       <c r="S3">
-        <v>0.2722411232689746</v>
+        <v>0.1525455022160528</v>
       </c>
       <c r="T3">
-        <v>0.2722411232689746</v>
+        <v>0.1525455022160527</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>19.72450833333333</v>
+        <v>8.929813666666668</v>
       </c>
       <c r="H4">
-        <v>59.173525</v>
+        <v>26.789441</v>
       </c>
       <c r="I4">
-        <v>0.5834853563809828</v>
+        <v>0.3579859341865942</v>
       </c>
       <c r="J4">
-        <v>0.5834853563809829</v>
+        <v>0.3579859341865942</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.23122433333334</v>
+        <v>13.06524766666667</v>
       </c>
       <c r="N4">
-        <v>39.693673</v>
+        <v>39.195743</v>
       </c>
       <c r="O4">
-        <v>0.2965501683732102</v>
+        <v>0.2674394472823625</v>
       </c>
       <c r="P4">
-        <v>0.2965501683732101</v>
+        <v>0.2674394472823625</v>
       </c>
       <c r="Q4">
-        <v>260.9793946230361</v>
+        <v>116.6702271721848</v>
       </c>
       <c r="R4">
-        <v>2348.814551607325</v>
+        <v>1050.032044549663</v>
       </c>
       <c r="S4">
-        <v>0.173032680678083</v>
+        <v>0.09573956037372296</v>
       </c>
       <c r="T4">
-        <v>0.173032680678083</v>
+        <v>0.09573956037372296</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>19.72450833333333</v>
+        <v>8.929813666666668</v>
       </c>
       <c r="H5">
-        <v>59.173525</v>
+        <v>26.789441</v>
       </c>
       <c r="I5">
-        <v>0.5834853563809828</v>
+        <v>0.3579859341865942</v>
       </c>
       <c r="J5">
-        <v>0.5834853563809829</v>
+        <v>0.3579859341865942</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.131792</v>
+        <v>4.046901</v>
       </c>
       <c r="N5">
-        <v>15.395376</v>
+        <v>12.140703</v>
       </c>
       <c r="O5">
-        <v>0.1150183643869107</v>
+        <v>0.0828381515803724</v>
       </c>
       <c r="P5">
-        <v>0.1150183643869107</v>
+        <v>0.0828381515803724</v>
       </c>
       <c r="Q5">
-        <v>101.2220740689333</v>
+        <v>36.138071857447</v>
       </c>
       <c r="R5">
-        <v>910.9986666204001</v>
+        <v>325.242646717023</v>
       </c>
       <c r="S5">
-        <v>0.06711153133465432</v>
+        <v>0.02965489307979031</v>
       </c>
       <c r="T5">
-        <v>0.06711153133465433</v>
+        <v>0.02965489307979031</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>2.305287</v>
       </c>
       <c r="I6">
-        <v>0.02273146997336134</v>
+        <v>0.03080543264277933</v>
       </c>
       <c r="J6">
-        <v>0.02273146997336134</v>
+        <v>0.03080543264277933</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.436778333333334</v>
+        <v>10.92359866666667</v>
       </c>
       <c r="N6">
-        <v>16.310335</v>
+        <v>32.770796</v>
       </c>
       <c r="O6">
-        <v>0.121853993972124</v>
+        <v>0.2236009040380497</v>
       </c>
       <c r="P6">
-        <v>0.121853993972124</v>
+        <v>0.2236009040380497</v>
       </c>
       <c r="Q6">
-        <v>4.177778137904999</v>
+        <v>8.394009999828</v>
       </c>
       <c r="R6">
-        <v>37.600003241145</v>
+        <v>75.546089998452</v>
       </c>
       <c r="S6">
-        <v>0.002769920405111491</v>
+        <v>0.006888122588208706</v>
       </c>
       <c r="T6">
-        <v>0.002769920405111492</v>
+        <v>0.006888122588208705</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>2.305287</v>
       </c>
       <c r="I7">
-        <v>0.02273146997336134</v>
+        <v>0.03080543264277933</v>
       </c>
       <c r="J7">
-        <v>0.02273146997336134</v>
+        <v>0.03080543264277933</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>62.452076</v>
       </c>
       <c r="O7">
-        <v>0.4665774732677552</v>
+        <v>0.4261214970992155</v>
       </c>
       <c r="P7">
-        <v>0.4665774732677551</v>
+        <v>0.4261214970992155</v>
       </c>
       <c r="Q7">
         <v>15.996662102868</v>
@@ -883,10 +883,10 @@
         <v>143.969958925812</v>
       </c>
       <c r="S7">
-        <v>0.01060599182383278</v>
+        <v>0.01312685707653017</v>
       </c>
       <c r="T7">
-        <v>0.01060599182383278</v>
+        <v>0.01312685707653017</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>2.305287</v>
       </c>
       <c r="I8">
-        <v>0.02273146997336134</v>
+        <v>0.03080543264277933</v>
       </c>
       <c r="J8">
-        <v>0.02273146997336134</v>
+        <v>0.03080543264277933</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.23122433333334</v>
+        <v>13.06524766666667</v>
       </c>
       <c r="N8">
-        <v>39.693673</v>
+        <v>39.195743</v>
       </c>
       <c r="O8">
-        <v>0.2965501683732102</v>
+        <v>0.2674394472823625</v>
       </c>
       <c r="P8">
-        <v>0.2965501683732101</v>
+        <v>0.2674394472823625</v>
       </c>
       <c r="Q8">
-        <v>10.167256483239</v>
+        <v>10.039715199249</v>
       </c>
       <c r="R8">
-        <v>91.50530834915101</v>
+        <v>90.35743679324099</v>
       </c>
       <c r="S8">
-        <v>0.006741021247970877</v>
+        <v>0.008238587879278954</v>
       </c>
       <c r="T8">
-        <v>0.006741021247970877</v>
+        <v>0.008238587879278954</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>2.305287</v>
       </c>
       <c r="I9">
-        <v>0.02273146997336134</v>
+        <v>0.03080543264277933</v>
       </c>
       <c r="J9">
-        <v>0.02273146997336134</v>
+        <v>0.03080543264277933</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.131792</v>
+        <v>4.046901</v>
       </c>
       <c r="N9">
-        <v>15.395376</v>
+        <v>12.140703</v>
       </c>
       <c r="O9">
-        <v>0.1150183643869107</v>
+        <v>0.0828381515803724</v>
       </c>
       <c r="P9">
-        <v>0.1150183643869107</v>
+        <v>0.0828381515803724</v>
       </c>
       <c r="Q9">
-        <v>3.943417794768</v>
+        <v>3.109756088529</v>
       </c>
       <c r="R9">
-        <v>35.490760152912</v>
+        <v>27.987804796761</v>
       </c>
       <c r="S9">
-        <v>0.002614536496446193</v>
+        <v>0.002551865098761506</v>
       </c>
       <c r="T9">
-        <v>0.002614536496446194</v>
+        <v>0.002551865098761506</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>13.31169566666667</v>
+        <v>15.246351</v>
       </c>
       <c r="H10">
-        <v>39.935087</v>
+        <v>45.739053</v>
       </c>
       <c r="I10">
-        <v>0.3937831736456558</v>
+        <v>0.6112086331706265</v>
       </c>
       <c r="J10">
-        <v>0.3937831736456558</v>
+        <v>0.6112086331706265</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.436778333333334</v>
+        <v>10.92359866666667</v>
       </c>
       <c r="N10">
-        <v>16.310335</v>
+        <v>32.770796</v>
       </c>
       <c r="O10">
-        <v>0.121853993972124</v>
+        <v>0.2236009040380497</v>
       </c>
       <c r="P10">
-        <v>0.121853993972124</v>
+        <v>0.2236009040380497</v>
       </c>
       <c r="Q10">
-        <v>72.37273858046056</v>
+        <v>166.545019455132</v>
       </c>
       <c r="R10">
-        <v>651.3546472241451</v>
+        <v>1498.905175096188</v>
       </c>
       <c r="S10">
-        <v>0.04798405246774161</v>
+        <v>0.1366668029328128</v>
       </c>
       <c r="T10">
-        <v>0.04798405246774162</v>
+        <v>0.1366668029328127</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>13.31169566666667</v>
+        <v>15.246351</v>
       </c>
       <c r="H11">
-        <v>39.935087</v>
+        <v>45.739053</v>
       </c>
       <c r="I11">
-        <v>0.3937831736456558</v>
+        <v>0.6112086331706265</v>
       </c>
       <c r="J11">
-        <v>0.3937831736456558</v>
+        <v>0.6112086331706265</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>62.452076</v>
       </c>
       <c r="O11">
-        <v>0.4665774732677552</v>
+        <v>0.4261214970992155</v>
       </c>
       <c r="P11">
-        <v>0.4665774732677551</v>
+        <v>0.4261214970992155</v>
       </c>
       <c r="Q11">
-        <v>277.1143431545125</v>
+        <v>317.388757124892</v>
       </c>
       <c r="R11">
-        <v>2494.029088390612</v>
+        <v>2856.498814124028</v>
       </c>
       <c r="S11">
-        <v>0.1837303581749478</v>
+        <v>0.2604491378066326</v>
       </c>
       <c r="T11">
-        <v>0.1837303581749478</v>
+        <v>0.2604491378066326</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>13.31169566666667</v>
+        <v>15.246351</v>
       </c>
       <c r="H12">
-        <v>39.935087</v>
+        <v>45.739053</v>
       </c>
       <c r="I12">
-        <v>0.3937831736456558</v>
+        <v>0.6112086331706265</v>
       </c>
       <c r="J12">
-        <v>0.3937831736456558</v>
+        <v>0.6112086331706265</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>13.23122433333334</v>
+        <v>13.06524766666667</v>
       </c>
       <c r="N12">
-        <v>39.693673</v>
+        <v>39.195743</v>
       </c>
       <c r="O12">
-        <v>0.2965501683732102</v>
+        <v>0.2674394472823625</v>
       </c>
       <c r="P12">
-        <v>0.2965501683732101</v>
+        <v>0.2674394472823625</v>
       </c>
       <c r="Q12">
-        <v>176.1300316227279</v>
+        <v>199.197351827931</v>
       </c>
       <c r="R12">
-        <v>1585.170284604551</v>
+        <v>1792.776166451379</v>
       </c>
       <c r="S12">
-        <v>0.1167764664471563</v>
+        <v>0.1634612990293606</v>
       </c>
       <c r="T12">
-        <v>0.1167764664471563</v>
+        <v>0.1634612990293606</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>13.31169566666667</v>
+        <v>15.246351</v>
       </c>
       <c r="H13">
-        <v>39.935087</v>
+        <v>45.739053</v>
       </c>
       <c r="I13">
-        <v>0.3937831736456558</v>
+        <v>0.6112086331706265</v>
       </c>
       <c r="J13">
-        <v>0.3937831736456558</v>
+        <v>0.6112086331706265</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.131792</v>
+        <v>4.046901</v>
       </c>
       <c r="N13">
-        <v>15.395376</v>
+        <v>12.140703</v>
       </c>
       <c r="O13">
-        <v>0.1150183643869107</v>
+        <v>0.0828381515803724</v>
       </c>
       <c r="P13">
-        <v>0.1150183643869107</v>
+        <v>0.0828381515803724</v>
       </c>
       <c r="Q13">
-        <v>68.31285332863467</v>
+        <v>61.700473108251</v>
       </c>
       <c r="R13">
-        <v>614.8156799577121</v>
+        <v>555.304257974259</v>
       </c>
       <c r="S13">
-        <v>0.04529229655581016</v>
+        <v>0.05063139340182059</v>
       </c>
       <c r="T13">
-        <v>0.04529229655581016</v>
+        <v>0.05063139340182059</v>
       </c>
     </row>
   </sheetData>
